--- a/Flights.xlsx
+++ b/Flights.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E1" s="2">
         <v>0.33333333333333331</v>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E2" s="2">
         <v>0.375</v>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E3" s="2">
         <v>0.58333333333333337</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E4" s="2">
         <v>0.45833333333333331</v>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E5" s="2">
         <v>0.375</v>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E6" s="2">
         <v>0.625</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E7" s="2">
         <v>0.54166666666666663</v>
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E8" s="2">
         <v>0.66666666666666663</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E9" s="2">
         <v>0.45833333333333331</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E10" s="2">
         <v>0.33333333333333331</v>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E11" s="2">
         <v>0.375</v>
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>42865</v>
+        <v>42877</v>
       </c>
       <c r="E12" s="2">
         <v>0.35416666666666669</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>42865</v>
+        <v>42878</v>
       </c>
       <c r="E13" s="2">
         <v>0.33333333333333331</v>
@@ -823,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>42866</v>
+        <v>42878</v>
       </c>
       <c r="E14" s="2">
         <v>0.375</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>42866</v>
+        <v>42878</v>
       </c>
       <c r="E15" s="2">
         <v>0.45833333333333331</v>
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>42866</v>
+        <v>42878</v>
       </c>
       <c r="E16" s="2">
         <v>0.375</v>
@@ -1366,5 +1366,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>